--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Onward Technologies Ltd/Pruned_Excel/Final_Parameters/Onward Technologies Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Onward Technologies Ltd/Pruned_Excel/Final_Parameters/Onward Technologies Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
   <si>
     <t>Balance Sheet of Onward Technologies(in Rs. Cr.)</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -3747,13 +3750,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3814,10 +3817,13 @@
       <c r="T1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>17.06</v>
@@ -3849,34 +3855,34 @@
       <c r="K2">
         <v>1.72</v>
       </c>
-      <c r="L2">
-        <v>1.72</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>1.72</v>
       </c>
       <c r="O2">
         <v>1.72</v>
       </c>
       <c r="P2">
+        <v>1.72</v>
+      </c>
+      <c r="Q2">
         <v>14.2</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1.22</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1.15</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1.22</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.15</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>21.97</v>
@@ -3908,34 +3914,34 @@
       <c r="K3">
         <v>1.04</v>
       </c>
-      <c r="L3">
-        <v>1.04</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>1.04</v>
       </c>
       <c r="O3">
         <v>1.04</v>
       </c>
       <c r="P3">
+        <v>1.04</v>
+      </c>
+      <c r="Q3">
         <v>14.56</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.72</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.67</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.72</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.67</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>21.91</v>
@@ -3967,34 +3973,34 @@
       <c r="K4">
         <v>1.08</v>
       </c>
-      <c r="L4">
-        <v>1.08</v>
-      </c>
-      <c r="N4">
+      <c r="M4">
         <v>1.08</v>
       </c>
       <c r="O4">
         <v>1.08</v>
       </c>
       <c r="P4">
+        <v>1.08</v>
+      </c>
+      <c r="Q4">
         <v>14.4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.75</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.71</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.75</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.71</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>19.73</v>
@@ -4026,34 +4032,34 @@
       <c r="K5">
         <v>0.97</v>
       </c>
-      <c r="L5">
-        <v>0.97</v>
-      </c>
-      <c r="N5">
+      <c r="M5">
         <v>0.97</v>
       </c>
       <c r="O5">
         <v>0.97</v>
       </c>
       <c r="P5">
+        <v>0.97</v>
+      </c>
+      <c r="Q5">
         <v>14.25</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.68</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.65</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.68</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>20.54</v>
@@ -4085,37 +4091,37 @@
       <c r="K6">
         <v>3.09</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3.09</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2.38</v>
-      </c>
-      <c r="N6">
-        <v>0.72</v>
       </c>
       <c r="O6">
         <v>0.72</v>
       </c>
       <c r="P6">
+        <v>0.72</v>
+      </c>
+      <c r="Q6">
         <v>14.25</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.5</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.48</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.5</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>22.55</v>
@@ -4147,34 +4153,34 @@
       <c r="K7">
         <v>2.28</v>
       </c>
-      <c r="L7">
-        <v>2.28</v>
-      </c>
-      <c r="N7">
+      <c r="M7">
         <v>2.28</v>
       </c>
       <c r="O7">
         <v>2.28</v>
       </c>
       <c r="P7">
+        <v>2.28</v>
+      </c>
+      <c r="Q7">
         <v>14.77</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1.55</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.46</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.55</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.46</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>23.86</v>
@@ -4206,34 +4212,34 @@
       <c r="K8">
         <v>1.61</v>
       </c>
-      <c r="L8">
-        <v>1.61</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
         <v>1.61</v>
       </c>
       <c r="O8">
         <v>1.61</v>
       </c>
       <c r="P8">
+        <v>1.61</v>
+      </c>
+      <c r="Q8">
         <v>14.68</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1.1</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.03</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1.1</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1.03</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>21.99</v>
@@ -4265,34 +4271,34 @@
       <c r="K9">
         <v>1.87</v>
       </c>
-      <c r="L9">
-        <v>1.87</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>1.87</v>
       </c>
       <c r="O9">
         <v>1.87</v>
       </c>
       <c r="P9">
+        <v>1.87</v>
+      </c>
+      <c r="Q9">
         <v>14.63</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1.28</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1.21</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1.28</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1.21</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>23.43</v>
@@ -4324,37 +4330,37 @@
       <c r="K10">
         <v>-0.11</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-0.11</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1.25</v>
-      </c>
-      <c r="N10">
-        <v>-1.36</v>
       </c>
       <c r="O10">
         <v>-1.36</v>
       </c>
       <c r="P10">
+        <v>-1.36</v>
+      </c>
+      <c r="Q10">
         <v>14.58</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-0.93</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-0.88</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-0.93</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>20.81</v>
@@ -4386,37 +4392,37 @@
       <c r="K11">
         <v>0.11</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.11</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3.58</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-3.46</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-4.69</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>14.93</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-3.14</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-2.92</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-3.14</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-2.92</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>23.79</v>
@@ -4448,37 +4454,37 @@
       <c r="K12">
         <v>1.53</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1.53</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.53</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
         <v>15.12</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.66</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.62</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>0.66</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>0.62</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>24.51</v>
@@ -4510,34 +4516,34 @@
       <c r="K13">
         <v>1.79</v>
       </c>
-      <c r="L13">
-        <v>1.79</v>
-      </c>
-      <c r="N13">
+      <c r="M13">
         <v>1.79</v>
       </c>
       <c r="O13">
         <v>1.79</v>
       </c>
       <c r="P13">
+        <v>1.79</v>
+      </c>
+      <c r="Q13">
         <v>15.04</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.19</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1.11</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1.19</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1.11</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -4569,34 +4575,34 @@
       <c r="K14">
         <v>1.25</v>
       </c>
-      <c r="L14">
-        <v>1.25</v>
-      </c>
-      <c r="N14">
+      <c r="M14">
         <v>1.25</v>
       </c>
       <c r="O14">
         <v>1.25</v>
       </c>
       <c r="P14">
+        <v>1.25</v>
+      </c>
+      <c r="Q14">
         <v>14.99</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.83</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.78</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>0.83</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>0.78</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>27</v>
@@ -4628,37 +4634,37 @@
       <c r="K15">
         <v>0.83</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.83</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.15</v>
-      </c>
-      <c r="N15">
-        <v>0.68</v>
       </c>
       <c r="O15">
         <v>0.68</v>
       </c>
       <c r="P15">
+        <v>0.68</v>
+      </c>
+      <c r="Q15">
         <v>15.33</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.44</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.41</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.44</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.41</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16">
         <v>24.29</v>
@@ -4690,37 +4696,37 @@
       <c r="K16">
         <v>0.36</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.36</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.49</v>
-      </c>
-      <c r="N16">
-        <v>-1.13</v>
       </c>
       <c r="O16">
         <v>-1.13</v>
       </c>
       <c r="P16">
+        <v>-1.13</v>
+      </c>
+      <c r="Q16">
         <v>15.2</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-0.74</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-0.74</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-0.6899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17">
         <v>25.2</v>
@@ -4752,37 +4758,37 @@
       <c r="K17">
         <v>0.18</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.18</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.06</v>
-      </c>
-      <c r="N17">
-        <v>0.12</v>
       </c>
       <c r="O17">
         <v>0.12</v>
       </c>
       <c r="P17">
+        <v>0.12</v>
+      </c>
+      <c r="Q17">
         <v>15.47</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.08</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.08</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>27.91</v>
@@ -4814,37 +4820,37 @@
       <c r="K18">
         <v>1.68</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.68</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.51</v>
-      </c>
-      <c r="N18">
-        <v>1.17</v>
       </c>
       <c r="O18">
         <v>1.17</v>
       </c>
       <c r="P18">
+        <v>1.17</v>
+      </c>
+      <c r="Q18">
         <v>15.36</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.76</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.71</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.76</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.71</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>30.65</v>
@@ -4876,37 +4882,37 @@
       <c r="K19">
         <v>3.94</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>3.94</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.29</v>
-      </c>
-      <c r="N19">
-        <v>2.66</v>
       </c>
       <c r="O19">
         <v>2.66</v>
       </c>
       <c r="P19">
+        <v>2.66</v>
+      </c>
+      <c r="Q19">
         <v>15.7</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1.69</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1.61</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1.69</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1.61</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20">
         <v>30.29</v>
@@ -4938,37 +4944,37 @@
       <c r="K20">
         <v>2.37</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2.37</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.65</v>
-      </c>
-      <c r="N20">
-        <v>1.72</v>
       </c>
       <c r="O20">
         <v>1.72</v>
       </c>
       <c r="P20">
+        <v>1.72</v>
+      </c>
+      <c r="Q20">
         <v>15.65</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1.1</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1.04</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1.1</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1.04</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21">
         <v>28.11</v>
@@ -5000,37 +5006,37 @@
       <c r="K21">
         <v>0.66</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.66</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.43</v>
-      </c>
-      <c r="N21">
-        <v>0.23</v>
       </c>
       <c r="O21">
         <v>0.23</v>
       </c>
       <c r="P21">
+        <v>0.23</v>
+      </c>
+      <c r="Q21">
         <v>15.54</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.15</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.14</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.15</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.14</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22">
         <v>26.43</v>
@@ -5062,37 +5068,37 @@
       <c r="K22">
         <v>3.43</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3.43</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.42</v>
-      </c>
-      <c r="N22">
-        <v>3.01</v>
       </c>
       <c r="O22">
         <v>3.01</v>
       </c>
       <c r="P22">
+        <v>3.01</v>
+      </c>
+      <c r="Q22">
         <v>15.75</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1.91</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1.83</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1.91</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1.83</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23">
         <v>31</v>
@@ -5124,37 +5130,37 @@
       <c r="K23">
         <v>2.9</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2.9</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="N23">
-        <v>2.21</v>
       </c>
       <c r="O23">
         <v>2.21</v>
       </c>
       <c r="P23">
+        <v>2.21</v>
+      </c>
+      <c r="Q23">
         <v>16.02</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1.38</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1.33</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1.38</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1.33</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24">
         <v>30.77</v>
@@ -5186,37 +5192,37 @@
       <c r="K24">
         <v>3.67</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>3.67</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1.22</v>
-      </c>
-      <c r="N24">
-        <v>2.45</v>
       </c>
       <c r="O24">
         <v>2.45</v>
       </c>
       <c r="P24">
+        <v>2.45</v>
+      </c>
+      <c r="Q24">
         <v>15.98</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1.54</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1.48</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1.54</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1.48</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25">
         <v>29.67</v>
@@ -5248,37 +5254,37 @@
       <c r="K25">
         <v>4.57</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>4.57</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.86</v>
-      </c>
-      <c r="N25">
-        <v>3.71</v>
       </c>
       <c r="O25">
         <v>3.71</v>
       </c>
       <c r="P25">
+        <v>3.71</v>
+      </c>
+      <c r="Q25">
         <v>15.9</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.33</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.24</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2.33</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2.24</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26">
         <v>29.29</v>
@@ -5310,37 +5316,37 @@
       <c r="K26">
         <v>3.4</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3.4</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.44</v>
-      </c>
-      <c r="N26">
-        <v>1.97</v>
       </c>
       <c r="O26">
         <v>1.97</v>
       </c>
       <c r="P26">
+        <v>1.97</v>
+      </c>
+      <c r="Q26">
         <v>15.8</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1.24</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1.2</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1.24</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27">
         <v>30.61</v>
@@ -5372,37 +5378,37 @@
       <c r="K27">
         <v>3.51</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>3.51</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.97</v>
-      </c>
-      <c r="N27">
-        <v>2.53</v>
       </c>
       <c r="O27">
         <v>2.53</v>
       </c>
       <c r="P27">
+        <v>2.53</v>
+      </c>
+      <c r="Q27">
         <v>16.29</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1.56</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1.5</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.56</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>28.19</v>
@@ -5434,37 +5440,37 @@
       <c r="K28">
         <v>4.89</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>4.89</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.07</v>
-      </c>
-      <c r="N28">
-        <v>3.82</v>
       </c>
       <c r="O28">
         <v>3.82</v>
       </c>
       <c r="P28">
+        <v>3.82</v>
+      </c>
+      <c r="Q28">
         <v>16.21</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2.35</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2.28</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2.35</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2.28</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29">
         <v>25.07</v>
@@ -5496,37 +5502,37 @@
       <c r="K29">
         <v>1.5</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.5</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.37</v>
-      </c>
-      <c r="N29">
-        <v>1.13</v>
       </c>
       <c r="O29">
         <v>1.13</v>
       </c>
       <c r="P29">
+        <v>1.13</v>
+      </c>
+      <c r="Q29">
         <v>16.12</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.7</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.68</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.7</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.68</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30">
         <v>30.61</v>
@@ -5558,23 +5564,20 @@
       <c r="K30">
         <v>-0.03</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-0.03</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.15</v>
-      </c>
-      <c r="N30">
-        <v>-0.18</v>
       </c>
       <c r="O30">
         <v>-0.18</v>
       </c>
       <c r="P30">
+        <v>-0.18</v>
+      </c>
+      <c r="Q30">
         <v>16.04</v>
-      </c>
-      <c r="Q30">
-        <v>-0.11</v>
       </c>
       <c r="R30">
         <v>-0.11</v>
@@ -5585,10 +5588,13 @@
       <c r="T30">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31">
         <v>49.71</v>
@@ -5620,37 +5626,37 @@
       <c r="K31">
         <v>4.04</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>4.04</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.07</v>
-      </c>
-      <c r="N31">
-        <v>2.97</v>
       </c>
       <c r="O31">
         <v>2.97</v>
       </c>
       <c r="P31">
+        <v>2.97</v>
+      </c>
+      <c r="Q31">
         <v>16.34</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1.82</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.75</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.82</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.75</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32">
         <v>59.56</v>
@@ -5682,31 +5688,31 @@
       <c r="K32">
         <v>3.91</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>3.91</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.97</v>
-      </c>
-      <c r="N32">
-        <v>2.94</v>
       </c>
       <c r="O32">
         <v>2.94</v>
       </c>
       <c r="P32">
+        <v>2.94</v>
+      </c>
+      <c r="Q32">
         <v>21.93</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1.34</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1.34</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33">
         <v>56.71</v>
@@ -5738,37 +5744,37 @@
       <c r="K33">
         <v>4.21</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>4.21</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1.11</v>
-      </c>
-      <c r="N33">
-        <v>3.1</v>
       </c>
       <c r="O33">
         <v>3.1</v>
       </c>
       <c r="P33">
+        <v>3.1</v>
+      </c>
+      <c r="Q33">
         <v>17.59</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>1.76</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>1.57</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>1.76</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>1.57</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>51.59</v>
@@ -5800,37 +5806,37 @@
       <c r="K34">
         <v>-0.83</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-0.83</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-0.22</v>
-      </c>
-      <c r="N34">
-        <v>-0.61</v>
       </c>
       <c r="O34">
         <v>-0.61</v>
       </c>
       <c r="P34">
+        <v>-0.61</v>
+      </c>
+      <c r="Q34">
         <v>17.49</v>
-      </c>
-      <c r="Q34">
-        <v>-0.37</v>
       </c>
       <c r="R34">
         <v>-0.37</v>
       </c>
       <c r="S34">
+        <v>-0.37</v>
+      </c>
+      <c r="T34">
         <v>-0.35</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-0.37</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>69.13</v>
@@ -5862,37 +5868,37 @@
       <c r="K35">
         <v>3.45</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>3.45</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.6</v>
-      </c>
-      <c r="N35">
-        <v>2.85</v>
       </c>
       <c r="O35">
         <v>2.85</v>
       </c>
       <c r="P35">
+        <v>2.85</v>
+      </c>
+      <c r="Q35">
         <v>22.07</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>1.29</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1.26</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>1.29</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>1.26</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36">
         <v>66.54000000000001</v>
@@ -5924,37 +5930,37 @@
       <c r="K36">
         <v>5.73</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>5.73</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1.83</v>
-      </c>
-      <c r="N36">
-        <v>3.9</v>
       </c>
       <c r="O36">
         <v>3.9</v>
       </c>
       <c r="P36">
+        <v>3.9</v>
+      </c>
+      <c r="Q36">
         <v>22.03</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>1.77</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>1.72</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>1.77</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>1.72</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37">
         <v>81.26000000000001</v>
@@ -5986,37 +5992,37 @@
       <c r="K37">
         <v>4.85</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>4.85</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>1.33</v>
-      </c>
-      <c r="N37">
-        <v>3.52</v>
       </c>
       <c r="O37">
         <v>3.52</v>
       </c>
       <c r="P37">
+        <v>3.52</v>
+      </c>
+      <c r="Q37">
         <v>22.26</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>1.58</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>1.55</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>1.58</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1.55</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38">
         <v>76.76000000000001</v>
@@ -6048,37 +6054,37 @@
       <c r="K38">
         <v>1.75</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1.75</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.54</v>
-      </c>
-      <c r="N38">
-        <v>1.21</v>
       </c>
       <c r="O38">
         <v>1.21</v>
       </c>
       <c r="P38">
+        <v>1.21</v>
+      </c>
+      <c r="Q38">
         <v>22.15</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.55</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.53</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.55</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.53</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B39">
         <v>87.09</v>
@@ -6110,37 +6116,37 @@
       <c r="K39">
         <v>10.72</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>10.72</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>2.72</v>
-      </c>
-      <c r="N39">
-        <v>7.99</v>
       </c>
       <c r="O39">
         <v>7.99</v>
       </c>
       <c r="P39">
+        <v>7.99</v>
+      </c>
+      <c r="Q39">
         <v>22.43</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>3.57</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>3.49</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>3.57</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>3.49</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>84.48999999999999</v>
@@ -6172,37 +6178,37 @@
       <c r="K40">
         <v>8.890000000000001</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>8.890000000000001</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>2.26</v>
-      </c>
-      <c r="N40">
-        <v>6.63</v>
       </c>
       <c r="O40">
         <v>6.63</v>
       </c>
       <c r="P40">
+        <v>6.63</v>
+      </c>
+      <c r="Q40">
         <v>22.37</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2.97</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2.91</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>2.97</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>2.91</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>88.02</v>
@@ -6234,37 +6240,37 @@
       <c r="K41">
         <v>11.69</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>11.69</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>2.98</v>
-      </c>
-      <c r="N41">
-        <v>8.710000000000001</v>
       </c>
       <c r="O41">
         <v>8.710000000000001</v>
       </c>
       <c r="P41">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="Q41">
         <v>22.31</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>3.91</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>3.84</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>3.91</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>3.84</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42">
         <v>85.19</v>
@@ -6296,37 +6302,37 @@
       <c r="K42">
         <v>9.57</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>9.57</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>2.49</v>
-      </c>
-      <c r="N42">
-        <v>7.08</v>
       </c>
       <c r="O42">
         <v>7.08</v>
       </c>
       <c r="P42">
+        <v>7.08</v>
+      </c>
+      <c r="Q42">
         <v>22.5</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>3.16</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>3.09</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>3.16</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>3.09</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>96.5</v>
@@ -6358,37 +6364,37 @@
       <c r="K43">
         <v>8.529999999999999</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>8.529999999999999</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>2.28</v>
-      </c>
-      <c r="N43">
-        <v>6.25</v>
       </c>
       <c r="O43">
         <v>6.25</v>
       </c>
       <c r="P43">
+        <v>6.25</v>
+      </c>
+      <c r="Q43">
         <v>22.67</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>2.76</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>2.73</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>2.76</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>2.73</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>95.73</v>
@@ -6420,37 +6426,37 @@
       <c r="K44">
         <v>7.68</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>7.68</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>1.96</v>
-      </c>
-      <c r="N44">
-        <v>5.72</v>
       </c>
       <c r="O44">
         <v>5.72</v>
       </c>
       <c r="P44">
+        <v>5.72</v>
+      </c>
+      <c r="Q44">
         <v>22.63</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>2.53</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>2.49</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>2.53</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>2.49</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45">
         <v>89.55</v>
@@ -6482,37 +6488,37 @@
       <c r="K45">
         <v>10.19</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>10.19</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>2.58</v>
-      </c>
-      <c r="N45">
-        <v>7.61</v>
       </c>
       <c r="O45">
         <v>7.61</v>
       </c>
       <c r="P45">
+        <v>7.61</v>
+      </c>
+      <c r="Q45">
         <v>22.58</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>3.38</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>3.31</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>3.38</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>3.31</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B46">
         <v>89.18000000000001</v>
@@ -6544,31 +6550,31 @@
       <c r="K46">
         <v>8.07</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>8.07</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2.04</v>
-      </c>
-      <c r="N46">
-        <v>6.02</v>
       </c>
       <c r="O46">
         <v>6.02</v>
       </c>
       <c r="P46">
+        <v>6.02</v>
+      </c>
+      <c r="Q46">
         <v>22.52</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>2.68</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>2.62</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>2.68</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>2.62</v>
       </c>
     </row>
@@ -6587,58 +6593,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:18">
